--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +865,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +958,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1200,10 +1212,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1247,28 +1259,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1293,28 +1305,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1547,10 +1559,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1594,28 +1606,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1640,28 +1652,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1836,10 +1848,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1883,28 +1895,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1929,28 +1941,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2154,10 +2166,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2201,28 +2213,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2247,28 +2259,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2443,10 +2455,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2490,28 +2502,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2536,28 +2548,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2703,10 +2715,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2750,28 +2762,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2796,28 +2808,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2963,10 +2975,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3010,28 +3022,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3056,28 +3068,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3252,10 +3264,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3299,28 +3311,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3345,28 +3357,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3512,10 +3524,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3559,28 +3571,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3605,28 +3617,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3801,10 +3813,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3848,28 +3860,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3894,28 +3906,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4032,10 +4044,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4079,28 +4091,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4125,28 +4137,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4321,10 +4333,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4368,28 +4380,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4414,28 +4426,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4552,10 +4564,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4599,28 +4611,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4645,28 +4657,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4783,10 +4795,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4830,28 +4842,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4876,28 +4888,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5014,10 +5026,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5061,28 +5073,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5107,28 +5119,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5274,10 +5286,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5321,28 +5333,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5367,28 +5379,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5505,10 +5517,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5552,28 +5564,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5598,28 +5610,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5707,10 +5719,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5754,28 +5766,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5800,28 +5812,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5967,10 +5979,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6014,28 +6026,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6060,28 +6072,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6198,10 +6210,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6245,28 +6257,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6291,28 +6303,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6371,10 +6383,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
